--- a/mcmaster_excel/316_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/316_Stainless_Steel_Extra-Wide_Truss_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.131"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.037"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>94792A711</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$9.78</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>94792A712</t>
+          <t>94792A711</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>$9.78</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>94792A713</t>
+          <t>94792A712</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -690,17 +658,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.194"</t>
+          <t>0.131"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.053"</t>
+          <t>0.037"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,17 +688,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>94792A714</t>
+          <t>94792A713</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -752,12 +720,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.257"</t>
+          <t>0.194"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>0.053"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -777,22 +745,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>94792A321</t>
+          <t>94792A714</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>94792A326</t>
+          <t>94792A321</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94792A331</t>
+          <t>94792A326</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -963,17 +931,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>94792A335</t>
+          <t>94792A331</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1025,17 +993,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>94792A715</t>
+          <t>94792A335</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1062,17 +1030,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.321"</t>
+          <t>0.257"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.069"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1092,17 +1060,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>94792A416</t>
+          <t>94792A715</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>94792A716</t>
+          <t>94792A416</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>94792A419</t>
+          <t>94792A716</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1273,17 +1241,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>94792A424</t>
+          <t>94792A419</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>94792A427</t>
+          <t>94792A424</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1397,17 +1365,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94792A717</t>
+          <t>94792A427</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1434,12 +1402,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.384"</t>
+          <t>0.321"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.102"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1459,22 +1427,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94792A510</t>
+          <t>94792A717</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1521,17 +1489,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>94792A718</t>
+          <t>94792A510</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13.08</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1583,17 +1551,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>94792A513</t>
+          <t>94792A718</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>94792A517</t>
+          <t>94792A513</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1707,17 +1675,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>94792A719</t>
+          <t>94792A517</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18.04</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,17 +1737,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>94792A520</t>
+          <t>94792A719</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>18.04</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>94792A721</t>
+          <t>94792A520</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94792A722</t>
+          <t>94792A721</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1930,12 +1898,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.448"</t>
+          <t>0.384"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.102"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1955,22 +1923,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>94792A723</t>
+          <t>94792A722</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24.32</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2017,17 +1985,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>94792A724</t>
+          <t>94792A723</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>24.32</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>94792A725</t>
+          <t>94792A724</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>94792A726</t>
+          <t>94792A725</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>94792A727</t>
+          <t>94792A726</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2265,22 +2233,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>94792A728</t>
+          <t>94792A727</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2307,7 +2275,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.128"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2327,17 +2295,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>94792A611</t>
+          <t>94792A728</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2394,12 +2362,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>94792A614</t>
+          <t>94792A611</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2451,17 +2419,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>94792A619</t>
+          <t>94792A614</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2518,12 +2486,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>94792A623</t>
+          <t>94792A619</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2580,12 +2548,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>94792A626</t>
+          <t>94792A623</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2617,7 +2585,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.118"</t>
+          <t>0.128"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2637,17 +2605,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>94792A729</t>
+          <t>94792A626</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2704,12 +2672,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>94792A731</t>
+          <t>94792A729</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2736,17 +2704,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.573"</t>
+          <t>0.448"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.118"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2766,17 +2734,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>94792A732</t>
+          <t>94792A731</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2823,17 +2791,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>94792A733</t>
+          <t>94792A732</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2890,12 +2858,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>94792A734</t>
+          <t>94792A733</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2912,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>94792A735</t>
+          <t>94792A734</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>16.81</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3014,12 +2982,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>94792A736</t>
+          <t>94792A735</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>16.81</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3076,17 +3044,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>94792A737</t>
+          <t>94792A736</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>94792A738</t>
+          <t>94792A737</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3200,12 +3168,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>94792A739</t>
+          <t>94792A738</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3222,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3232,17 +3200,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.698"</t>
+          <t>0.573"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.183"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3257,22 +3225,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>94792A741</t>
+          <t>94792A739</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>11.85</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3284,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3324,12 +3292,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>94792A742</t>
+          <t>94792A741</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3346,60 +3314,122 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.698"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.183"</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>94792A742</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.698"</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.183"</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>94792A743</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>13.50</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
